--- a/storage/imports/materials.xlsx
+++ b/storage/imports/materials.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\oxytoxin\Sites\buildvis\storage\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBCB7B4-8B54-4046-A58A-F7212F386661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E195B6-21FE-44DC-BA3B-BAF19087BD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
@@ -504,7 +502,7 @@
     <t>Tiles 30x 30</t>
   </si>
   <si>
-    <t>cubic</t>
+    <t>cubic meter</t>
   </si>
 </sst>
 </file>
@@ -861,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,28 +2906,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>